--- a/analysis/mails_01/P12_4/table_to_fill.xlsx
+++ b/analysis/mails_01/P12_4/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">marine</t>
   </si>
   <si>
-    <t xml:space="preserve">se_s_1410</t>
+    <t xml:space="preserve">1410</t>
   </si>
   <si>
     <t xml:space="preserve">Sediment</t>
@@ -75,6 +75,15 @@
     <t xml:space="preserve">Subterranean</t>
   </si>
   <si>
+    <t xml:space="preserve">Saltwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atacama</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deep Sea - SDU</t>
   </si>
   <si>
@@ -87,7 +96,10 @@
     <t xml:space="preserve">MFD10088</t>
   </si>
   <si>
-    <t xml:space="preserve">se_s_1420</t>
+    <t xml:space="preserve">1420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamchatska</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10089</t>
@@ -166,7 +178,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,11 +188,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE38140"/>
       </patternFill>
     </fill>
   </fills>
@@ -196,11 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,16 +567,22 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -591,16 +603,22 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -621,16 +639,22 @@
       <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -642,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
@@ -651,16 +675,22 @@
       <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -672,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
@@ -681,11 +711,17 @@
       <c r="J6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -704,10 +740,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -715,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -723,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -731,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -739,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -747,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -763,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -779,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -787,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -795,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -803,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -811,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -819,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
